--- a/UniApplikation/OutputFiles/WPM5.xlsx
+++ b/UniApplikation/OutputFiles/WPM5.xlsx
@@ -32,79 +32,79 @@
     <t>Studentenname</t>
   </si>
   <si>
+    <t>Student98</t>
+  </si>
+  <si>
+    <t>Student90</t>
+  </si>
+  <si>
+    <t>Student91</t>
+  </si>
+  <si>
+    <t>Student104</t>
+  </si>
+  <si>
+    <t>Student83</t>
+  </si>
+  <si>
+    <t>Student86</t>
+  </si>
+  <si>
+    <t>Student84</t>
+  </si>
+  <si>
+    <t>Student87</t>
+  </si>
+  <si>
+    <t>Student106</t>
+  </si>
+  <si>
     <t>Student108</t>
   </si>
   <si>
+    <t>Student68</t>
+  </si>
+  <si>
+    <t>Student81</t>
+  </si>
+  <si>
+    <t>Student71</t>
+  </si>
+  <si>
+    <t>Student89</t>
+  </si>
+  <si>
+    <t>Student79</t>
+  </si>
+  <si>
+    <t>Student102</t>
+  </si>
+  <si>
     <t>Student113</t>
   </si>
   <si>
-    <t>Student90</t>
-  </si>
-  <si>
-    <t>Student86</t>
-  </si>
-  <si>
-    <t>Student106</t>
-  </si>
-  <si>
-    <t>Student98</t>
-  </si>
-  <si>
-    <t>Student79</t>
-  </si>
-  <si>
-    <t>Student81</t>
-  </si>
-  <si>
-    <t>Student91</t>
-  </si>
-  <si>
-    <t>Student83</t>
-  </si>
-  <si>
-    <t>Student84</t>
-  </si>
-  <si>
-    <t>Student71</t>
+    <t>Student69</t>
+  </si>
+  <si>
+    <t>Student94</t>
   </si>
   <si>
     <t>Student100</t>
   </si>
   <si>
-    <t>Student94</t>
-  </si>
-  <si>
     <t>Student126</t>
   </si>
   <si>
-    <t>Student102</t>
-  </si>
-  <si>
-    <t>Student89</t>
-  </si>
-  <si>
-    <t>Student87</t>
-  </si>
-  <si>
-    <t>Student69</t>
-  </si>
-  <si>
-    <t>Student127</t>
-  </si>
-  <si>
-    <t>Student104</t>
-  </si>
-  <si>
-    <t>Student99</t>
-  </si>
-  <si>
-    <t>Student103</t>
-  </si>
-  <si>
-    <t>Student139</t>
-  </si>
-  <si>
-    <t>Student72</t>
+    <t>Student43</t>
+  </si>
+  <si>
+    <t>Student42</t>
+  </si>
+  <si>
+    <t>Student92</t>
+  </si>
+  <si>
+    <t>Student80</t>
   </si>
 </sst>
 </file>

--- a/UniApplikation/OutputFiles/WPM5.xlsx
+++ b/UniApplikation/OutputFiles/WPM5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,79 +32,79 @@
     <t>Studentenname</t>
   </si>
   <si>
+    <t>Student100</t>
+  </si>
+  <si>
     <t>Student98</t>
   </si>
   <si>
+    <t>Student83</t>
+  </si>
+  <si>
+    <t>Student108</t>
+  </si>
+  <si>
+    <t>Student104</t>
+  </si>
+  <si>
+    <t>Student106</t>
+  </si>
+  <si>
+    <t>Student91</t>
+  </si>
+  <si>
+    <t>Student126</t>
+  </si>
+  <si>
+    <t>Student94</t>
+  </si>
+  <si>
+    <t>Student102</t>
+  </si>
+  <si>
+    <t>Student81</t>
+  </si>
+  <si>
+    <t>Student71</t>
+  </si>
+  <si>
+    <t>Student87</t>
+  </si>
+  <si>
+    <t>Student68</t>
+  </si>
+  <si>
     <t>Student90</t>
   </si>
   <si>
-    <t>Student91</t>
-  </si>
-  <si>
-    <t>Student104</t>
-  </si>
-  <si>
-    <t>Student83</t>
+    <t>Student89</t>
   </si>
   <si>
     <t>Student86</t>
   </si>
   <si>
+    <t>Student113</t>
+  </si>
+  <si>
+    <t>Student79</t>
+  </si>
+  <si>
     <t>Student84</t>
   </si>
   <si>
-    <t>Student87</t>
-  </si>
-  <si>
-    <t>Student106</t>
-  </si>
-  <si>
-    <t>Student108</t>
-  </si>
-  <si>
-    <t>Student68</t>
-  </si>
-  <si>
-    <t>Student81</t>
-  </si>
-  <si>
-    <t>Student71</t>
-  </si>
-  <si>
-    <t>Student89</t>
-  </si>
-  <si>
-    <t>Student79</t>
-  </si>
-  <si>
-    <t>Student102</t>
-  </si>
-  <si>
-    <t>Student113</t>
-  </si>
-  <si>
-    <t>Student69</t>
-  </si>
-  <si>
-    <t>Student94</t>
-  </si>
-  <si>
-    <t>Student100</t>
-  </si>
-  <si>
-    <t>Student126</t>
-  </si>
-  <si>
     <t>Student43</t>
   </si>
   <si>
-    <t>Student42</t>
-  </si>
-  <si>
-    <t>Student92</t>
+    <t>Gernert</t>
   </si>
   <si>
     <t>Student80</t>
+  </si>
+  <si>
+    <t>Student99</t>
+  </si>
+  <si>
+    <t>Student44</t>
   </si>
 </sst>
 </file>

--- a/UniApplikation/OutputFiles/WPM5.xlsx
+++ b/UniApplikation/OutputFiles/WPM5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,79 +32,79 @@
     <t>Studentenname</t>
   </si>
   <si>
+    <t>Student84</t>
+  </si>
+  <si>
+    <t>Student87</t>
+  </si>
+  <si>
+    <t>Student81</t>
+  </si>
+  <si>
+    <t>Student90</t>
+  </si>
+  <si>
+    <t>Student89</t>
+  </si>
+  <si>
+    <t>Student113</t>
+  </si>
+  <si>
     <t>Student100</t>
   </si>
   <si>
+    <t>Student86</t>
+  </si>
+  <si>
+    <t>Student79</t>
+  </si>
+  <si>
+    <t>Student94</t>
+  </si>
+  <si>
+    <t>Student108</t>
+  </si>
+  <si>
+    <t>Student68</t>
+  </si>
+  <si>
+    <t>Student106</t>
+  </si>
+  <si>
+    <t>Student83</t>
+  </si>
+  <si>
+    <t>Student104</t>
+  </si>
+  <si>
+    <t>Student71</t>
+  </si>
+  <si>
     <t>Student98</t>
   </si>
   <si>
-    <t>Student83</t>
-  </si>
-  <si>
-    <t>Student108</t>
-  </si>
-  <si>
-    <t>Student104</t>
-  </si>
-  <si>
-    <t>Student106</t>
+    <t>Student126</t>
   </si>
   <si>
     <t>Student91</t>
   </si>
   <si>
-    <t>Student126</t>
-  </si>
-  <si>
-    <t>Student94</t>
-  </si>
-  <si>
     <t>Student102</t>
   </si>
   <si>
-    <t>Student81</t>
-  </si>
-  <si>
-    <t>Student71</t>
-  </si>
-  <si>
-    <t>Student87</t>
-  </si>
-  <si>
-    <t>Student68</t>
-  </si>
-  <si>
-    <t>Student90</t>
-  </si>
-  <si>
-    <t>Student89</t>
-  </si>
-  <si>
-    <t>Student86</t>
-  </si>
-  <si>
-    <t>Student113</t>
-  </si>
-  <si>
-    <t>Student79</t>
-  </si>
-  <si>
-    <t>Student84</t>
-  </si>
-  <si>
-    <t>Student43</t>
-  </si>
-  <si>
-    <t>Gernert</t>
-  </si>
-  <si>
-    <t>Student80</t>
-  </si>
-  <si>
-    <t>Student99</t>
+    <t>Student42</t>
+  </si>
+  <si>
+    <t>Student114</t>
+  </si>
+  <si>
+    <t>Student127</t>
   </si>
   <si>
     <t>Student44</t>
+  </si>
+  <si>
+    <t>Student69</t>
   </si>
 </sst>
 </file>
